--- a/models/classifiers/feature_importances/feat_imp_classification/randomforest_fragire18_feature_importances.xlsx
+++ b/models/classifiers/feature_importances/feat_imp_classification/randomforest_fragire18_feature_importances.xlsx
@@ -448,51 +448,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SF36-11</t>
+          <t>SF36-Role limitations due to emotional problems</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03859709430606218</v>
+        <v>0.0388710946078856</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SF36-Role limitations due to emotional problems</t>
+          <t>HHIE01_SQ001_</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02669317519156558</v>
+        <v>0.03179889320728119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHIE01_SQ002_</t>
+          <t>RoliTronc_baseline</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02606357617127674</v>
+        <v>0.02864563993038411</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FROP COM INTERPRETATION</t>
+          <t>SF36-15</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02443114780081489</v>
+        <v>0.02598916841384607</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RoliTronc_baseline</t>
+          <t>HHIE01_SQ002_</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02387730239917163</v>
+        <v>0.02354145627083771</v>
       </c>
     </row>
   </sheetData>
